--- a/data/Two_Node_Link/Power_Parameters.xlsx
+++ b/data/Two_Node_Link/Power_Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\links\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Two_Node_Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC499D-6B84-49CF-9D62-E90C8158A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA9A84-1D73-4912-952B-2939A5E9398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>[p.u.]</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>Enable Links</t>
+  </si>
+  <si>
+    <t>Enable Links Trafo?</t>
+  </si>
+  <si>
+    <t>pEnableLinksTrafo</t>
+  </si>
+  <si>
+    <t>Enable Links Trafo</t>
   </si>
 </sst>
 </file>
@@ -577,6 +586,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF4E9C49"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFB90135"/>
       </font>
     </dxf>
@@ -647,6 +663,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFB90135"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF4E9C49"/>
       </font>
     </dxf>
@@ -661,6 +684,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF4E9C49"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFB90135"/>
       </font>
     </dxf>
@@ -675,6 +705,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFB90135"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF4E9C49"/>
       </font>
     </dxf>
@@ -689,6 +726,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF4E9C49"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFB90135"/>
       </font>
     </dxf>
@@ -746,41 +790,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
       </font>
     </dxf>
     <dxf>
@@ -1128,10 +1137,10 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:H82"/>
+  <dimension ref="B1:H85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1370,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>84</v>
@@ -1413,36 +1422,36 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="s">
+    <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>24</v>
@@ -1450,10 +1459,13 @@
     </row>
     <row r="40" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,18 +1473,18 @@
     </row>
     <row r="42" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="9">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,18 +1492,18 @@
     </row>
     <row r="45" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C46" s="9">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,18 +1511,18 @@
     </row>
     <row r="48" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="C49" s="9">
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1518,21 +1530,18 @@
     </row>
     <row r="51" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1540,47 +1549,53 @@
     </row>
     <row r="54" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="9">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:5" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="7" t="s">
+    <row r="57" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>24</v>
@@ -1588,52 +1603,39 @@
     </row>
     <row r="62" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="7" t="s">
+    <row r="67" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-      <c r="C67"/>
     </row>
     <row r="68" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>5</v>
@@ -1641,16 +1643,16 @@
     </row>
     <row r="69" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C69" s="10">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>48</v>
@@ -1662,27 +1664,27 @@
     </row>
     <row r="71" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="13">
-        <v>0.2</v>
+        <v>66</v>
+      </c>
+      <c r="C72" s="10">
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1691,7 +1693,7 @@
     </row>
     <row r="74" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>0</v>
@@ -1699,16 +1701,16 @@
     </row>
     <row r="75" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C75" s="13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>0</v>
@@ -1718,36 +1720,43 @@
       <c r="B76" s="3"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="7" t="s">
+    <row r="77" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3"/>
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="7" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>71</v>
@@ -1755,15 +1764,37 @@
     </row>
     <row r="82" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1785,14 +1816,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="29" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="97" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="98" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="97" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C34">
+  <conditionalFormatting sqref="C14:C37">
     <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1800,47 +1831,47 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="25" priority="110" operator="equal">
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="25" priority="109" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="110" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="109" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="cellIs" dxfId="23" priority="87" operator="equal">
       <formula>"No"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="88" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="23" priority="88" operator="equal">
+  <conditionalFormatting sqref="C46 C49">
+    <cfRule type="cellIs" dxfId="21" priority="85" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="86" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="87" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43 C46">
-    <cfRule type="cellIs" dxfId="21" priority="86" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="85" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="19" priority="84" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="83" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="17" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="83" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="84" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="81" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="82" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
     <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1848,15 +1879,15 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59 C62">
-    <cfRule type="cellIs" dxfId="13" priority="44" operator="equal">
+  <conditionalFormatting sqref="C62 C65">
+    <cfRule type="cellIs" dxfId="13" priority="43" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C67">
+  <conditionalFormatting sqref="C69:C70">
     <cfRule type="cellIs" dxfId="11" priority="93" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1864,52 +1895,52 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C70">
-    <cfRule type="cellIs" dxfId="9" priority="32" operator="equal">
+  <conditionalFormatting sqref="C72:C73">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="31" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C73">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C76">
-    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C37 C40 C49 C59 C62 C27 C18 C24 C21 C30 C33" xr:uid="{3037D345-D942-4EE1-9FD6-4C812B603C20}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C40 C43 C52 C62 C65 C27 C18 C24 C21 C30 C33:C34 C36" xr:uid="{3037D345-D942-4EE1-9FD6-4C812B603C20}">
       <formula1>"No, Yes"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C9 C12 C67 C70 C73 C76 C15:C34" xr:uid="{87C6F772-FD4B-9449-B9E7-DA0FF0A031BB}"/>
-    <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C66 C52 C69 C72 C75 C79 C82" xr:uid="{2B929D69-0393-BA4C-AFD3-02F233DB330E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C9 C12 C70 C73 C76 C79 C15:C37" xr:uid="{87C6F772-FD4B-9449-B9E7-DA0FF0A031BB}"/>
+    <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C69 C55 C72 C75 C78 C82 C85" xr:uid="{2B929D69-0393-BA4C-AFD3-02F233DB330E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1917,15 +1948,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2071,21 +2093,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2103,7 +2126,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2117,4 +2140,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Two_Node_Link/Power_Parameters.xlsx
+++ b/data/Two_Node_Link/Power_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Two_Node_Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA9A84-1D73-4912-952B-2939A5E9398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F2886-76DA-4536-A83E-CD3577355842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,6 +586,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFB90135"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF4E9C49"/>
       </font>
     </dxf>
@@ -649,6 +656,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF4E9C49"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFB90135"/>
       </font>
     </dxf>
@@ -656,6 +670,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFB90135"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF4E9C49"/>
       </font>
     </dxf>
@@ -663,6 +684,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF4E9C49"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFB90135"/>
       </font>
     </dxf>
@@ -670,6 +698,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFB90135"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF4E9C49"/>
       </font>
     </dxf>
@@ -733,6 +768,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF4E9C49"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFB90135"/>
       </font>
     </dxf>
@@ -740,56 +782,14 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFB90135"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
       </font>
     </dxf>
     <dxf>
@@ -1139,8 +1139,8 @@
   </sheetPr>
   <dimension ref="B1:H85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1438,7 +1438,7 @@
         <v>98</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>99</v>
@@ -1816,11 +1816,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="29" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="98" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="97" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="98" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C37">
@@ -1832,43 +1832,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="25" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="110" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="109" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="110" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="23" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="88" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="87" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="88" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46 C49">
-    <cfRule type="cellIs" dxfId="21" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="86" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="85" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="86" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="19" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="84" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="83" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="84" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="82" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="81" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="82" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
@@ -1880,11 +1880,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62 C65">
-    <cfRule type="cellIs" dxfId="13" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="44" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C70">
@@ -1896,43 +1896,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C73">
-    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="32" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="31" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C76">
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:C79">
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -1948,6 +1948,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2093,35 +2108,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2143,9 +2133,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>